--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_38.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_38.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1264"/>
+  <dimension ref="A1:N1265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.301974773406982</v>
+        <v>0.001905918121337891</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04364705085754395</v>
+        <v>0.0007190704345703125</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05531883239746094</v>
+        <v>0.06502223014831543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 3), (5, 2), (4, 2), (5, 1), (6, 4), (5, 5), (6, 3), (4, 4), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (1, 3), (0, 5), (2, 6), (2, 3), (2, 2), (4, 5), (1, 4), (3, 4), (2, 5), (2, 0), (0, 6), (0, 4), (3, 2), (3, 0), (4, 6), (5, 4), (6, 5), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 3], [5, 2], [4, 2], [5, 1], [6, 4], [5, 5], [6, 3], [4, 4], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [1, 3], [0, 5], [2, 6], [2, 3], [2, 2], [4, 5], [1, 4], [3, 4], [2, 5], [2, 0], [0, 6], [0, 4], [3, 2], [3, 0], [4, 6], [5, 4], [6, 5], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[(3, 3), (5, 2), (4, 2), (5, 1), (6, 4), (5, 5), (6, 3), (4, 4), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (0, 4), (0, 5), (2, 6), (2, 3), (1, 4), (4, 5), (1, 6), (3, 4), (2, 5), (0, 0), (0, 6), (4, 3), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[3, 3], [5, 2], [4, 2], [5, 1], [6, 4], [5, 5], [6, 3], [4, 4], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [0, 4], [0, 5], [2, 6], [2, 3], [1, 4], [4, 5], [1, 6], [3, 4], [2, 5], [0, 0], [0, 6], [4, 3], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[(3, 3), (5, 2), (4, 2), (5, 1), (6, 4), (5, 5), (6, 3), (4, 4), (5, 6), (3, 5), (2, 3), (2, 2), (2, 0), (3, 4), (2, 1), (4, 6), (3, 1), (3, 2), (4, 5), (4, 3), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[3, 3], [5, 2], [4, 2], [5, 1], [6, 4], [5, 5], [6, 3], [4, 4], [5, 6], [3, 5], [2, 3], [2, 2], [2, 0], [3, 4], [2, 1], [4, 6], [3, 1], [3, 2], [4, 5], [4, 3], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[(4, 2), (5, 2), (6, 4), (5, 1), (3, 6), (1, 5), (6, 3), (0, 5), (2, 0), (2, 5), (0, 3), (1, 4), (0, 4), (1, 6), (3, 0), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[4, 2], [5, 2], [6, 4], [5, 1], [3, 6], [1, 5], [6, 3], [0, 5], [2, 0], [2, 5], [0, 3], [1, 4], [0, 4], [1, 6], [3, 0], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[(4, 2), (5, 2), (6, 4), (5, 1), (1, 6), (0, 6), (6, 3), (3, 2), (3, 0), (3, 3), (4, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[4, 2], [5, 2], [6, 4], [5, 1], [1, 6], [0, 6], [6, 3], [3, 2], [3, 0], [3, 3], [4, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[(4, 2), (5, 2), (0, 6), (5, 1), (1, 6), (3, 3), (4, 3), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[4, 2], [5, 2], [0, 6], [5, 1], [1, 6], [3, 3], [4, 3], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[(3, 3), (5, 2), (0, 6), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[3, 3], [5, 2], [0, 6], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>[(3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -6870,7 +6870,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>[(4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 1), (3, 2), (3, 0)]</t>
+          <t>[[4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 1], [3, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>[(6, 4), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (5, 3), (3, 3), (6, 2), (4, 3), (3, 1), (3, 2), (3, 0)]</t>
+          <t>[[6, 4], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [5, 3], [3, 3], [6, 2], [4, 3], [3, 1], [3, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>[(5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 3), (3, 1), (6, 2), (3, 2), (3, 0), (4, 1), (4, 0)]</t>
+          <t>[[5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 3], [3, 1], [6, 2], [3, 2], [3, 0], [4, 1], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -9663,7 +9663,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>[(3, 6), (2, 5), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 4), (3, 5), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 3), (3, 1), (6, 2), (3, 2), (3, 0), (4, 1), (4, 0)]</t>
+          <t>[[3, 6], [2, 5], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 4], [3, 5], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 3], [3, 1], [6, 2], [3, 2], [3, 0], [4, 1], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>[(0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (2, 5), (3, 2), (3, 4), (3, 5), (4, 5), (4, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 3), (3, 1), (6, 2), (3, 0), (4, 0), (4, 1), (4, 2)]</t>
+          <t>[[0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [2, 5], [3, 2], [3, 4], [3, 5], [4, 5], [4, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 3], [3, 1], [6, 2], [3, 0], [4, 0], [4, 1], [4, 2]]</t>
         </is>
       </c>
     </row>
@@ -11074,7 +11074,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>[(2, 5), (1, 5), (0, 4), (0, 3), (1, 2), (1, 1), (0, 0), (1, 0), (0, 1), (0, 2), (1, 3), (1, 4), (0, 5), (2, 4), (1, 6), (2, 3), (3, 1), (2, 0), (3, 5), (3, 6), (3, 0), (3, 2), (2, 1), (2, 6), (2, 2), (0, 6), (5, 3), (5, 4), (4, 3), (6, 5), (6, 6), (3, 3), (4, 0), (6, 2), (4, 1), (4, 2), (5, 0), (4, 4)]</t>
+          <t>[[2, 5], [1, 5], [0, 4], [0, 3], [1, 2], [1, 1], [0, 0], [1, 0], [0, 1], [0, 2], [1, 3], [1, 4], [0, 5], [2, 4], [1, 6], [2, 3], [3, 1], [2, 0], [3, 5], [3, 6], [3, 0], [3, 2], [2, 1], [2, 6], [2, 2], [0, 6], [5, 3], [5, 4], [4, 3], [6, 5], [6, 6], [3, 3], [4, 0], [6, 2], [4, 1], [4, 2], [5, 0], [4, 4]]</t>
         </is>
       </c>
     </row>
@@ -11824,7 +11824,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (2, 0), (2, 3), (0, 6), (0, 4), (2, 5), (1, 6), (3, 2), (3, 1), (4, 0), (3, 5), (3, 6), (4, 1), (3, 3), (3, 4), (2, 6), (4, 2), (0, 5), (1, 5), (1, 4), (0, 0), (3, 0), (2, 4), (4, 3), (5, 0), (6, 2), (5, 1), (4, 4), (5, 2), (4, 5)]</t>
+          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [0, 6], [0, 4], [2, 5], [1, 6], [3, 2], [3, 1], [4, 0], [3, 5], [3, 6], [4, 1], [3, 3], [3, 4], [2, 6], [4, 2], [0, 5], [1, 5], [1, 4], [0, 0], [3, 0], [2, 4], [4, 3], [5, 0], [6, 2], [5, 1], [4, 4], [5, 2], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (0, 0), (1, 2), (1, 0), (1, 4), (0, 5), (3, 0), (3, 1), (2, 3), (1, 6), (2, 4), (2, 5), (2, 6), (3, 2), (3, 3), (4, 0), (3, 5), (3, 6), (4, 1), (3, 4), (4, 3), (4, 6), (4, 2), (4, 5), (4, 4), (5, 4), (5, 0), (5, 1), (0, 6), (1, 5), (2, 1), (1, 3), (2, 0), (0, 3), (0, 4), (2, 2)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 4], [0, 5], [3, 0], [3, 1], [2, 3], [1, 6], [2, 4], [2, 5], [2, 6], [3, 2], [3, 3], [4, 0], [3, 5], [3, 6], [4, 1], [3, 4], [4, 3], [4, 6], [4, 2], [4, 5], [4, 4], [5, 4], [5, 0], [5, 1], [0, 6], [1, 5], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -12703,110 +12703,120 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1260" t="n">
-        <v>206</v>
+        <v>0.9869151844634609</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1261" t="n">
-        <v>1028</v>
+        <v>206</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1262" t="n">
-        <v>16</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1263" t="n">
-        <v>6.596462965011597</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1264" t="n">
+        <v>0.2108769416809082</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1264" t="inlineStr">
+      <c r="B1265" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1264" t="inlineStr">
+      <c r="C1265" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1264" t="inlineStr">
+      <c r="D1265" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1264" t="inlineStr">
+      <c r="E1265" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1264" t="inlineStr">
+      <c r="F1265" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1264" t="inlineStr">
+      <c r="G1265" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
+      <c r="H1265" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1264" t="inlineStr">
+      <c r="I1265" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1264" t="inlineStr">
+      <c r="J1265" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1264" t="inlineStr">
+      <c r="K1265" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1264" t="inlineStr">
+      <c r="L1265" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1264" t="inlineStr">
+      <c r="M1265" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1264" t="inlineStr">
+      <c r="N1265" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
